--- a/InformePro.xlsx
+++ b/InformePro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1560beaa5bd2ff10/NovaAreaTrabalho/CURSO EXCEL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="310" documentId="8_{6F455CE7-C83A-410B-8E7F-2FA9A433297C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1E9B83D-6006-4ED7-B039-2935DB9F74A3}"/>
+  <xr:revisionPtr revIDLastSave="316" documentId="8_{6F455CE7-C83A-410B-8E7F-2FA9A433297C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1552196E-05ED-4D71-A2DB-672C7F0F35E8}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="48" xr2:uid="{A99DD627-97CE-46E9-B5C2-2E842769B65C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="50" firstSheet="1" activeTab="1" xr2:uid="{A99DD627-97CE-46E9-B5C2-2E842769B65C}"/>
   </bookViews>
   <sheets>
     <sheet name="TITULAR" sheetId="2" r:id="rId1"/>
@@ -3451,7 +3451,7 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A2:D18"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -3606,7 +3606,7 @@
   <sheetPr codeName="Planilha2"/>
   <dimension ref="A2:D21"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -3757,7 +3757,7 @@
   <sheetPr codeName="Planilha3"/>
   <dimension ref="A2:E22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
